--- a/SEP/vlu_softwareProjectPlan_Ver01_k15t.xlsx
+++ b/SEP/vlu_softwareProjectPlan_Ver01_k15t.xlsx
@@ -407,7 +407,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,6 +474,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="45">
     <border>
@@ -1055,7 +1061,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1133,9 +1139,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1183,16 +1186,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1291,6 +1288,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1596,7 +1605,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1708,72 +1717,72 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="55" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="67"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="66"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="57"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="70"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="69"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="57"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
       <c r="G5" s="34"/>
       <c r="H5" s="31"/>
       <c r="I5" s="32"/>
       <c r="O5" s="16"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="57"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="75"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="107"/>
       <c r="J6" s="34"/>
       <c r="K6" s="33"/>
       <c r="L6" s="2"/>
@@ -1782,7 +1791,7 @@
       <c r="O6" s="16"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="57"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="26" t="s">
         <v>16</v>
       </c>
@@ -1791,16 +1800,16 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="72"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="70"/>
       <c r="M7" s="2"/>
       <c r="O7" s="16"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="57"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="26" t="s">
         <v>48</v>
       </c>
@@ -1813,13 +1822,13 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="75"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="72"/>
       <c r="N8" s="2"/>
       <c r="O8" s="16"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="57"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="26" t="s">
         <v>47</v>
       </c>
@@ -1833,54 +1842,54 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="75"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="72"/>
       <c r="O9" s="16"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A10" s="57"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
       <c r="O10" s="16" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A11" s="58"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
       <c r="O11" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="58" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="28" t="s">
@@ -1901,7 +1910,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="60"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="29" t="s">
         <v>19</v>
       </c>
@@ -1920,7 +1929,7 @@
       <c r="O13" s="16"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A14" s="61"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="30" t="s">
         <v>20</v>
       </c>
@@ -1939,49 +1948,49 @@
       <c r="O14" s="24"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="61" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
       <c r="O15" s="22"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="63"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
       <c r="O16" s="16"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="63"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="26" t="s">
         <v>28</v>
       </c>
@@ -1989,8 +1998,8 @@
       <c r="D17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -2000,7 +2009,7 @@
       <c r="O17" s="16"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="63"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="26" t="s">
         <v>29</v>
       </c>
@@ -2020,7 +2029,7 @@
       <c r="O18" s="16"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="63"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="26" t="s">
         <v>31</v>
       </c>
@@ -2042,7 +2051,7 @@
       <c r="O19" s="16"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="63"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="26" t="s">
         <v>32</v>
       </c>
@@ -2063,7 +2072,7 @@
       <c r="O20" s="16"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="63"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="26" t="s">
         <v>33</v>
       </c>
@@ -2082,7 +2091,7 @@
       <c r="O21" s="16"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="63"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="26" t="s">
         <v>34</v>
       </c>
@@ -2108,7 +2117,7 @@
       <c r="O22" s="16"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A23" s="64"/>
+      <c r="A23" s="63"/>
       <c r="B23" s="27" t="s">
         <v>35</v>
       </c>
@@ -2155,14 +2164,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A23"/>
     <mergeCell ref="C3:O4"/>
     <mergeCell ref="C15:N16"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="D6:H6"/>
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="M9:N9"/>
@@ -2193,32 +2201,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="100" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="101"/>
-      <c r="E1" s="89" t="s">
+      <c r="D1" s="98"/>
+      <c r="E1" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="87"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="37"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="102">
+      <c r="C2" s="99">
         <v>0.6</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="83">
+      <c r="D2" s="100"/>
+      <c r="E2" s="80">
         <v>0.4</v>
       </c>
-      <c r="F2" s="84"/>
-      <c r="G2" s="85"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="82"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1">
       <c r="A3" s="38"/>
@@ -2236,7 +2244,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="55" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="41" t="s">
@@ -2245,125 +2253,125 @@
       <c r="C4" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="104">
+      <c r="D4" s="101">
         <v>0.4</v>
       </c>
-      <c r="E4" s="91">
+      <c r="E4" s="88">
         <v>0.4</v>
       </c>
-      <c r="F4" s="94">
+      <c r="F4" s="91">
         <v>0.3</v>
       </c>
-      <c r="G4" s="97">
+      <c r="G4" s="94">
         <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="57"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="42" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="98"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="98"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="95"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="57"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="42" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="48">
         <v>0.1</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="98"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="95"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="57"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="42" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="48">
         <v>0.1</v>
       </c>
-      <c r="D7" s="98"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="98"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="95"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="57"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="42" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="48">
         <v>0.1</v>
       </c>
-      <c r="D8" s="98"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="98"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="57"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="48">
         <v>0.05</v>
       </c>
-      <c r="D9" s="98"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="98"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="95"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="57"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="42" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="48">
         <v>0</v>
       </c>
-      <c r="D10" s="98"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="98"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="95"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="57"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="42" t="s">
         <v>84</v>
       </c>
       <c r="C11" s="48">
         <v>0</v>
       </c>
-      <c r="D11" s="98"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="98"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="95"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A12" s="58"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="43" t="s">
         <v>85</v>
       </c>
       <c r="C12" s="52">
         <v>0.05</v>
       </c>
-      <c r="D12" s="99"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="98"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="95"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="83" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="50" t="s">
@@ -2372,119 +2380,119 @@
       <c r="C13" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="97">
+      <c r="D13" s="94">
         <v>0.6</v>
       </c>
-      <c r="E13" s="92"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="98"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="95"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="87"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="44" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="98"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="98"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="95"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="87"/>
+      <c r="A15" s="84"/>
       <c r="B15" s="44" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="48">
         <v>0.1</v>
       </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="98"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="95"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="87"/>
+      <c r="A16" s="84"/>
       <c r="B16" s="44" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="48">
         <v>0.1</v>
       </c>
-      <c r="D16" s="98"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="98"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="95"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="87"/>
+      <c r="A17" s="84"/>
       <c r="B17" s="44" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="48">
         <v>0.05</v>
       </c>
-      <c r="D17" s="98"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="98"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="95"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="87"/>
+      <c r="A18" s="84"/>
       <c r="B18" s="44" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="48">
         <v>0.1</v>
       </c>
-      <c r="D18" s="98"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="98"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="95"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="87"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="44" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="48">
         <v>0.05</v>
       </c>
-      <c r="D19" s="98"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="98"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="95"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="87"/>
+      <c r="A20" s="84"/>
       <c r="B20" s="44" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="48">
         <v>0.1</v>
       </c>
-      <c r="D20" s="98"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="98"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="95"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A21" s="88"/>
+      <c r="A21" s="85"/>
       <c r="B21" s="45" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="49"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="99"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="96"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
     </row>
     <row r="23" spans="1:7">
       <c r="B23" s="40" t="s">
@@ -2590,13 +2598,13 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="54" t="s">
         <v>64</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="54" t="s">
         <v>82</v>
       </c>
       <c r="D6" t="s">

--- a/SEP/vlu_softwareProjectPlan_Ver01_k15t.xlsx
+++ b/SEP/vlu_softwareProjectPlan_Ver01_k15t.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,8 +406,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,6 +487,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="45">
     <border>
@@ -1061,7 +1074,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1101,7 +1114,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1141,6 +1153,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1186,6 +1206,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1193,12 +1225,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1288,18 +1314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1605,7 +1620,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="M9" sqref="M9:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1717,81 +1732,82 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="60" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="66"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="71"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="56"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="69"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="74"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="56"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="34"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="33"/>
       <c r="H5" s="31"/>
       <c r="I5" s="32"/>
       <c r="O5" s="16"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="56"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="107"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="33"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="59"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="16"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="56"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="26" t="s">
         <v>16</v>
       </c>
@@ -1800,16 +1816,16 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="70"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="79"/>
       <c r="M7" s="2"/>
       <c r="O7" s="16"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="56"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="26" t="s">
         <v>48</v>
       </c>
@@ -1822,13 +1838,13 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="72"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="81"/>
       <c r="N8" s="2"/>
       <c r="O8" s="16"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="56"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="26" t="s">
         <v>47</v>
       </c>
@@ -1842,54 +1858,54 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="72"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="81"/>
       <c r="O9" s="16"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A10" s="56"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
       <c r="O10" s="16" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A11" s="57"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
       <c r="O11" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="63" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="28" t="s">
@@ -1910,7 +1926,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="59"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="29" t="s">
         <v>19</v>
       </c>
@@ -1922,14 +1938,14 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
       <c r="O13" s="16"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A14" s="60"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="30" t="s">
         <v>20</v>
       </c>
@@ -1939,58 +1955,58 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
       <c r="O14" s="24"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="66" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
       <c r="O15" s="22"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="62"/>
+      <c r="A16" s="67"/>
       <c r="B16" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
       <c r="O16" s="16"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="62"/>
+      <c r="A17" s="67"/>
       <c r="B17" s="26" t="s">
         <v>28</v>
       </c>
@@ -1998,18 +2014,18 @@
       <c r="D17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
       <c r="O17" s="16"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="62"/>
+      <c r="A18" s="67"/>
       <c r="B18" s="26" t="s">
         <v>29</v>
       </c>
@@ -2025,11 +2041,11 @@
       <c r="J18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="34"/>
+      <c r="N18" s="33"/>
       <c r="O18" s="16"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="62"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="26" t="s">
         <v>31</v>
       </c>
@@ -2051,7 +2067,7 @@
       <c r="O19" s="16"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="62"/>
+      <c r="A20" s="67"/>
       <c r="B20" s="26" t="s">
         <v>32</v>
       </c>
@@ -2072,7 +2088,7 @@
       <c r="O20" s="16"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="62"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="26" t="s">
         <v>33</v>
       </c>
@@ -2091,7 +2107,7 @@
       <c r="O21" s="16"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="62"/>
+      <c r="A22" s="67"/>
       <c r="B22" s="26" t="s">
         <v>34</v>
       </c>
@@ -2101,7 +2117,7 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="36"/>
+      <c r="G22" s="35"/>
       <c r="H22" s="4" t="s">
         <v>26</v>
       </c>
@@ -2117,7 +2133,7 @@
       <c r="O22" s="16"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A23" s="63"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="27" t="s">
         <v>35</v>
       </c>
@@ -2201,35 +2217,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="97" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="98"/>
-      <c r="E1" s="86" t="s">
+      <c r="D1" s="105"/>
+      <c r="E1" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="94"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="37"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="99">
+      <c r="C2" s="106">
         <v>0.6</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="80">
+      <c r="D2" s="107"/>
+      <c r="E2" s="87">
         <v>0.4</v>
       </c>
-      <c r="F2" s="81"/>
-      <c r="G2" s="82"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="89"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A3" s="38"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="18"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -2239,263 +2255,263 @@
       <c r="F3" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="38" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="101">
+      <c r="D4" s="108">
         <v>0.4</v>
       </c>
-      <c r="E4" s="88">
+      <c r="E4" s="95">
         <v>0.4</v>
       </c>
-      <c r="F4" s="91">
+      <c r="F4" s="98">
         <v>0.3</v>
       </c>
-      <c r="G4" s="94">
+      <c r="G4" s="101">
         <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="56"/>
-      <c r="B5" s="42" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="95"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="95"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="102"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="56"/>
-      <c r="B6" s="42" t="s">
+      <c r="A6" s="61"/>
+      <c r="B6" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="47">
         <v>0.1</v>
       </c>
-      <c r="D6" s="95"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="95"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="102"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="56"/>
-      <c r="B7" s="42" t="s">
+      <c r="A7" s="61"/>
+      <c r="B7" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="47">
         <v>0.1</v>
       </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="95"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="102"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="56"/>
-      <c r="B8" s="42" t="s">
+      <c r="A8" s="61"/>
+      <c r="B8" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="47">
         <v>0.1</v>
       </c>
-      <c r="D8" s="95"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="95"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="102"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="56"/>
-      <c r="B9" s="42" t="s">
+      <c r="A9" s="61"/>
+      <c r="B9" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="47">
         <v>0.05</v>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="95"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="102"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="56"/>
-      <c r="B10" s="42" t="s">
+      <c r="A10" s="61"/>
+      <c r="B10" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="47">
         <v>0</v>
       </c>
-      <c r="D10" s="95"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="95"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="102"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="56"/>
-      <c r="B11" s="42" t="s">
+      <c r="A11" s="61"/>
+      <c r="B11" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="47">
         <v>0</v>
       </c>
-      <c r="D11" s="95"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="95"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="102"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A12" s="57"/>
-      <c r="B12" s="43" t="s">
+      <c r="A12" s="62"/>
+      <c r="B12" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="51">
         <v>0.05</v>
       </c>
-      <c r="D12" s="96"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="95"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="102"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="94">
+      <c r="D13" s="101">
         <v>0.6</v>
       </c>
-      <c r="E13" s="89"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="95"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="102"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="84"/>
-      <c r="B14" s="44" t="s">
+      <c r="A14" s="91"/>
+      <c r="B14" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="95"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="95"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="102"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="84"/>
-      <c r="B15" s="44" t="s">
+      <c r="A15" s="91"/>
+      <c r="B15" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C15" s="47">
         <v>0.1</v>
       </c>
-      <c r="D15" s="95"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="95"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="102"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="84"/>
-      <c r="B16" s="44" t="s">
+      <c r="A16" s="91"/>
+      <c r="B16" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C16" s="47">
         <v>0.1</v>
       </c>
-      <c r="D16" s="95"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="95"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="102"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="84"/>
-      <c r="B17" s="44" t="s">
+      <c r="A17" s="91"/>
+      <c r="B17" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="47">
         <v>0.05</v>
       </c>
-      <c r="D17" s="95"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="95"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="102"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="84"/>
-      <c r="B18" s="44" t="s">
+      <c r="A18" s="91"/>
+      <c r="B18" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="47">
         <v>0.1</v>
       </c>
-      <c r="D18" s="95"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="95"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="102"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="84"/>
-      <c r="B19" s="44" t="s">
+      <c r="A19" s="91"/>
+      <c r="B19" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C19" s="47">
         <v>0.05</v>
       </c>
-      <c r="D19" s="95"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="95"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="102"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="84"/>
-      <c r="B20" s="44" t="s">
+      <c r="A20" s="91"/>
+      <c r="B20" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="47">
         <v>0.1</v>
       </c>
-      <c r="D20" s="95"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="95"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="102"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A21" s="85"/>
-      <c r="B21" s="45" t="s">
+      <c r="A21" s="92"/>
+      <c r="B21" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="96"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="103"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="39" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2598,13 +2614,13 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="53" t="s">
         <v>64</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="53" t="s">
         <v>82</v>
       </c>
       <c r="D6" t="s">
